--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhagyesh.mawale\Desktop\idp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bottleneck_detection\bottleneck_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDD3E1C-3F31-4325-BEB6-C42ED657FE33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4353274D-06A6-46D9-994A-54E0BDDA0C55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -196,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="713">
   <si>
     <t>Item Code</t>
   </si>
@@ -2251,6 +2251,90 @@
   </si>
   <si>
     <t>Issues to GC</t>
+  </si>
+  <si>
+    <t>Phases</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Schematic Design I</t>
+  </si>
+  <si>
+    <t>Drawings Review and Clarification RFIS</t>
+  </si>
+  <si>
+    <t>Schematic Design II</t>
+  </si>
+  <si>
+    <t>Schematic Design III</t>
+  </si>
+  <si>
+    <t>Announcement of Completion Schedule and Timelines</t>
+  </si>
+  <si>
+    <t>Second floor Demolition, Submission fo Safety Plans, Electrical Permits, and Budget Updates.</t>
+  </si>
+  <si>
+    <t>ADA Budget, lighting, wall layouts, fire alarms demo, CAD Drawings Second floor Metal Framings, 88 RFIs</t>
+  </si>
+  <si>
+    <t>Fire Systems, Cost summary reviews, Epoxy floor, overhead doors, RFIs, Crane concerns,  GC Review of Safety Plans, floor variance</t>
+  </si>
+  <si>
+    <t>Design Development I</t>
+  </si>
+  <si>
+    <t>Fire alarm layouts, Elevator room abatement, Floor variance, RFIs on steel shop and roofing.</t>
+  </si>
+  <si>
+    <t>Design Development II</t>
+  </si>
+  <si>
+    <t>18 open RFIs, construction documentation issues.</t>
+  </si>
+  <si>
+    <t>Construction Documents I</t>
+  </si>
+  <si>
+    <t>Construction Documents II</t>
+  </si>
+  <si>
+    <t>Lobby celings colors, Commissioning, Dorm floors, Open RFIs 16, Punch list for dorms, Fire Marshall inspection.</t>
+  </si>
+  <si>
+    <t>Crane pick, Stud framing of second floor, Dry wall of first floor</t>
+  </si>
+  <si>
+    <t>Construction I</t>
+  </si>
+  <si>
+    <t>MEP rough in, core project schedule modifications, steel railing, interior architecture modification, communications hsop drawings, Steel information from Subcontractor.</t>
+  </si>
+  <si>
+    <t>Construction II</t>
+  </si>
+  <si>
+    <t>Mechanical room MEP removal, Millwork shop drawings, Bathroom items.</t>
+  </si>
+  <si>
+    <t>Consruction III</t>
+  </si>
+  <si>
+    <t>Mechanical room concrete wall, duct transitions, HVAC, Updated drawings, Ceiling steel and dryall hanging and finishing</t>
+  </si>
+  <si>
+    <t>Construction IV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duct insulations, Lighting layouts, CIP Concrete. </t>
+  </si>
+  <si>
+    <t>Construction V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lighting, Electrical, Acoustical Finishes, Punchlists, </t>
   </si>
 </sst>
 </file>
@@ -2258,9 +2342,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2281,8 +2365,16 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2307,8 +2399,14 @@
         <bgColor rgb="FF8CE2F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8CE2F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2398,11 +2496,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2450,27 +2559,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2887,19 +3001,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+    <sheetView topLeftCell="A223" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
     <col min="3" max="3" width="20" style="35" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" customWidth="1"/>
-    <col min="7" max="19" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
+    <col min="7" max="19" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
@@ -11836,24 +11950,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="8" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="8" width="12.88671875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>677</v>
       </c>
@@ -11881,8 +11998,14 @@
       <c r="I1" s="18" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J1" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1">
       <c r="A2" s="19">
         <v>43488</v>
       </c>
@@ -11910,8 +12033,14 @@
       <c r="I2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J2" s="37" t="s">
+        <v>687</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25" customHeight="1">
       <c r="A3" s="19">
         <v>43507</v>
       </c>
@@ -11939,8 +12068,14 @@
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J3" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="A4" s="19">
         <v>43516</v>
       </c>
@@ -11968,8 +12103,14 @@
       <c r="I4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J4" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="14.25" customHeight="1">
       <c r="A5" s="19">
         <v>43523</v>
       </c>
@@ -11997,8 +12138,14 @@
       <c r="I5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J5" s="37" t="s">
+        <v>689</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.25" customHeight="1">
       <c r="A6" s="19">
         <v>43530</v>
       </c>
@@ -12026,8 +12173,14 @@
       <c r="I6">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J6" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1">
       <c r="A7" s="20">
         <v>43537</v>
       </c>
@@ -12055,8 +12208,14 @@
       <c r="I7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J7" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1">
       <c r="A8" s="20">
         <v>43544</v>
       </c>
@@ -12084,8 +12243,14 @@
       <c r="I8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J8" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="14.25" customHeight="1">
       <c r="A9" s="19">
         <v>43551</v>
       </c>
@@ -12113,8 +12278,14 @@
       <c r="I9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J9" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1">
       <c r="A10" s="19">
         <v>43558</v>
       </c>
@@ -12142,8 +12313,14 @@
       <c r="I10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J10" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1">
       <c r="A11" s="19">
         <v>43565</v>
       </c>
@@ -12171,8 +12348,14 @@
       <c r="I11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J11" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K11" s="38" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="14.25" customHeight="1">
       <c r="A12" s="19">
         <v>43572</v>
       </c>
@@ -12202,8 +12385,14 @@
       <c r="I12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J12" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14.25" customHeight="1">
       <c r="A13" s="21">
         <v>43579</v>
       </c>
@@ -12231,8 +12420,14 @@
       <c r="I13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J13" s="37" t="s">
+        <v>690</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1">
       <c r="A14" s="20">
         <v>43593</v>
       </c>
@@ -12260,8 +12455,14 @@
       <c r="I14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J14" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="20">
         <v>43600</v>
       </c>
@@ -12289,8 +12490,14 @@
       <c r="I15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J15" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="K15" s="38" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="19">
         <v>43607</v>
       </c>
@@ -12318,8 +12525,14 @@
       <c r="I16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J16" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="K16" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="14.25" customHeight="1">
       <c r="A17" s="19">
         <v>43614</v>
       </c>
@@ -12347,8 +12560,14 @@
       <c r="I17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J17" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="14.25" customHeight="1">
       <c r="A18" s="19">
         <v>43621</v>
       </c>
@@ -12376,8 +12595,14 @@
       <c r="I18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J18" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="14.25" customHeight="1">
       <c r="A19" s="19">
         <v>43628</v>
       </c>
@@ -12405,8 +12630,14 @@
       <c r="I19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J19" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="14.25" customHeight="1">
       <c r="A20" s="20">
         <v>43635</v>
       </c>
@@ -12434,8 +12665,14 @@
       <c r="I20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J20" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1">
       <c r="A21" s="20">
         <v>43642</v>
       </c>
@@ -12463,8 +12700,14 @@
       <c r="I21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J21" s="37" t="s">
+        <v>699</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1">
       <c r="A22" s="20">
         <v>43649</v>
       </c>
@@ -12492,8 +12735,14 @@
       <c r="I22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J22" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="14.25" customHeight="1">
       <c r="A23" s="20">
         <v>43656</v>
       </c>
@@ -12521,8 +12770,14 @@
       <c r="I23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J23" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1">
       <c r="A24" s="20">
         <v>43663</v>
       </c>
@@ -12550,8 +12805,14 @@
       <c r="I24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J24" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1">
       <c r="A25" s="20">
         <v>43670</v>
       </c>
@@ -12579,8 +12840,14 @@
       <c r="I25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J25" s="37" t="s">
+        <v>700</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1">
       <c r="A26" s="20">
         <v>43677</v>
       </c>
@@ -12608,8 +12875,14 @@
       <c r="I26">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J26" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1">
       <c r="A27" s="20">
         <v>43684</v>
       </c>
@@ -12637,8 +12910,14 @@
       <c r="I27">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J27" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="K27" s="37" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1">
       <c r="A28" s="20">
         <v>43691</v>
       </c>
@@ -12669,8 +12948,14 @@
       <c r="I28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J28" s="37" t="s">
+        <v>703</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1">
       <c r="A29" s="20">
         <v>43698</v>
       </c>
@@ -12698,8 +12983,14 @@
       <c r="I29">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J29" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1">
       <c r="A30" s="20">
         <v>43712</v>
       </c>
@@ -12724,8 +13015,14 @@
       <c r="I30">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J30" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1">
       <c r="A31" s="20">
         <v>43719</v>
       </c>
@@ -12750,8 +13047,14 @@
       <c r="I31">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J31" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1">
       <c r="A32" s="20">
         <v>43726</v>
       </c>
@@ -12773,8 +13076,14 @@
       <c r="I32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J32" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="K32" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1">
       <c r="A33" s="20">
         <v>43733</v>
       </c>
@@ -12796,8 +13105,14 @@
       <c r="I33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J33" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="K33" s="38" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" customHeight="1">
       <c r="A34" s="20">
         <v>43740</v>
       </c>
@@ -12822,8 +13137,14 @@
       <c r="I34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J34" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="K34" s="38" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" customHeight="1">
       <c r="A35" s="20">
         <v>43747</v>
       </c>
@@ -12851,8 +13172,14 @@
       <c r="I35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J35" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="K35" s="38" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" customHeight="1">
       <c r="A36" s="20">
         <v>43754</v>
       </c>
@@ -12877,8 +13204,14 @@
       <c r="I36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J36" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="14.25" customHeight="1">
       <c r="A37" s="20">
         <v>43761</v>
       </c>
@@ -12900,8 +13233,14 @@
       <c r="I37">
         <v>18</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J37" s="37" t="s">
+        <v>709</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1">
       <c r="A38" s="22">
         <v>43768</v>
       </c>
@@ -12926,8 +13265,14 @@
       <c r="I38">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J38" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1">
       <c r="A39" s="22">
         <v>43775</v>
       </c>
@@ -12952,32 +13297,38 @@
       <c r="I39">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="14.25" customHeight="1">
+      <c r="J39" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="14.25" customHeight="1">
       <c r="A40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" customHeight="1">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1">
       <c r="A41" s="24"/>
     </row>
-    <row r="42" spans="1:9" ht="14.25" customHeight="1">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1">
       <c r="A42" s="24"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25" customHeight="1">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1">
       <c r="A43" s="24"/>
     </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1">
       <c r="A44" s="24"/>
     </row>
-    <row r="45" spans="1:9" ht="14.25" customHeight="1">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1">
       <c r="A45" s="24"/>
     </row>
-    <row r="46" spans="1:9" ht="14.25" customHeight="1">
+    <row r="46" spans="1:11" ht="14.25" customHeight="1">
       <c r="A46" s="24"/>
     </row>
-    <row r="47" spans="1:9" ht="14.25" customHeight="1">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1">
       <c r="A47" s="24"/>
     </row>
-    <row r="48" spans="1:9" ht="14.25" customHeight="1">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1">
       <c r="A48" s="24"/>
     </row>
     <row r="49" spans="1:1" ht="14.25" customHeight="1">
